--- a/excel_sample_data/SalesTransactions_SampleData.xlsx
+++ b/excel_sample_data/SalesTransactions_SampleData.xlsx
@@ -494,37 +494,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>1669370</v>
+        <v>82125</v>
       </c>
       <c r="J2" t="n">
-        <v>51750470</v>
+        <v>1888875</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-10-18 00:00:00</t>
+          <t>2024-04-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -548,37 +548,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>1954675</v>
+        <v>777964</v>
       </c>
       <c r="J3" t="n">
-        <v>60594925</v>
+        <v>4667784</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-04-13 00:00:00</t>
+          <t>2024-03-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -602,37 +602,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>1376615</v>
+        <v>1928518</v>
       </c>
       <c r="J4" t="n">
-        <v>61947675</v>
+        <v>13499626</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-09-08 00:00:00</t>
+          <t>2024-04-04 00:00:00</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I5" t="n">
-        <v>1874565</v>
+        <v>898870</v>
       </c>
       <c r="J5" t="n">
-        <v>61860645</v>
+        <v>36853670</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-05-22 00:00:00</t>
+          <t>2024-07-17 00:00:00</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2024-12-14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>1589988</v>
+        <v>1070485</v>
       </c>
       <c r="J6" t="n">
-        <v>77909412</v>
+        <v>12845820</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2024-11-05 00:00:00</t>
+          <t>2024-12-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -764,37 +764,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>1345743</v>
+        <v>1298886</v>
       </c>
       <c r="J7" t="n">
-        <v>2691486</v>
+        <v>18184404</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2024-01-22 00:00:00</t>
+          <t>2024-11-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -818,37 +818,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I8" t="n">
-        <v>933656</v>
+        <v>1688250</v>
       </c>
       <c r="J8" t="n">
-        <v>31744304</v>
+        <v>47271000</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2024-01-08 00:00:00</t>
+          <t>2024-10-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -887,22 +887,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>993599</v>
+        <v>1265944</v>
       </c>
       <c r="J9" t="n">
-        <v>46699153</v>
+        <v>31648600</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-08-04 00:00:00</t>
+          <t>2024-01-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -926,37 +926,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>1359340</v>
+        <v>1283564</v>
       </c>
       <c r="J10" t="n">
-        <v>33983500</v>
+        <v>8984948</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-03-18 00:00:00</t>
+          <t>2024-09-12 00:00:00</t>
         </is>
       </c>
     </row>
@@ -980,17 +980,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I11" t="n">
-        <v>568930</v>
+        <v>290832</v>
       </c>
       <c r="J11" t="n">
-        <v>18774690</v>
+        <v>7270800</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-06-19 00:00:00</t>
+          <t>2024-07-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1034,37 +1034,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-11-27</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I12" t="n">
-        <v>974171</v>
+        <v>70992</v>
       </c>
       <c r="J12" t="n">
-        <v>37018498</v>
+        <v>922896</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-11-27 00:00:00</t>
+          <t>2024-11-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1088,17 +1088,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-09-21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I13" t="n">
-        <v>558837</v>
+        <v>788675</v>
       </c>
       <c r="J13" t="n">
-        <v>12294414</v>
+        <v>14984825</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024-10-16 00:00:00</t>
+          <t>2024-09-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1142,37 +1142,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-12-14</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I14" t="n">
-        <v>975765</v>
+        <v>1672505</v>
       </c>
       <c r="J14" t="n">
-        <v>10733415</v>
+        <v>63555190</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-12-14 00:00:00</t>
+          <t>2024-12-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1196,37 +1196,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>1719851</v>
+        <v>961003</v>
       </c>
       <c r="J15" t="n">
-        <v>15478659</v>
+        <v>1922006</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-07-31 00:00:00</t>
+          <t>2024-11-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I16" t="n">
-        <v>1726418</v>
+        <v>1201701</v>
       </c>
       <c r="J16" t="n">
-        <v>53518958</v>
+        <v>33647628</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-10-08 00:00:00</t>
+          <t>2024-01-24 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1319,22 +1319,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1431440</v>
+        <v>1906698</v>
       </c>
       <c r="J17" t="n">
-        <v>15745840</v>
+        <v>1906698</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-07-28 00:00:00</t>
+          <t>2024-07-03 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1358,37 +1358,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I18" t="n">
-        <v>312076</v>
+        <v>982682</v>
       </c>
       <c r="J18" t="n">
-        <v>4369064</v>
+        <v>27515096</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024-04-16 00:00:00</t>
+          <t>2024-03-08 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1412,37 +1412,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I19" t="n">
-        <v>1540923</v>
+        <v>1790015</v>
       </c>
       <c r="J19" t="n">
-        <v>38523075</v>
+        <v>37590315</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024-10-24 00:00:00</t>
+          <t>2024-01-24 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1481,22 +1481,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I20" t="n">
-        <v>1072278</v>
+        <v>421843</v>
       </c>
       <c r="J20" t="n">
-        <v>40746564</v>
+        <v>8436860</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2024-05-09 00:00:00</t>
+          <t>2024-02-17 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1520,17 +1520,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1544,13 +1544,13 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I21" t="n">
-        <v>1680619</v>
+        <v>856427</v>
       </c>
       <c r="J21" t="n">
-        <v>63863522</v>
+        <v>27405664</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2024-05-02 00:00:00</t>
+          <t>2024-08-06 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1574,17 +1574,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-01-21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1598,13 +1598,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I22" t="n">
-        <v>1732044</v>
+        <v>1064943</v>
       </c>
       <c r="J22" t="n">
-        <v>53693364</v>
+        <v>45792549</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-11-21 00:00:00</t>
+          <t>2024-01-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1628,17 +1628,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>980313</v>
+        <v>1095412</v>
       </c>
       <c r="J23" t="n">
-        <v>6862191</v>
+        <v>5477060</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-03-18 00:00:00</t>
+          <t>2024-12-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1682,17 +1682,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I24" t="n">
-        <v>279101</v>
+        <v>70656</v>
       </c>
       <c r="J24" t="n">
-        <v>13675949</v>
+        <v>2967552</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-07-10 00:00:00</t>
+          <t>2024-03-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-13</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1760,13 +1760,13 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I25" t="n">
-        <v>125816</v>
+        <v>603406</v>
       </c>
       <c r="J25" t="n">
-        <v>880712</v>
+        <v>18705586</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-01-03 00:00:00</t>
+          <t>2024-01-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1790,37 +1790,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>820382</v>
+        <v>1484394</v>
       </c>
       <c r="J26" t="n">
-        <v>14766876</v>
+        <v>5937576</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-03-28 00:00:00</t>
+          <t>2024-03-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1844,37 +1844,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>1018430</v>
+        <v>1730521</v>
       </c>
       <c r="J27" t="n">
-        <v>18331740</v>
+        <v>13844168</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-02-16 00:00:00</t>
+          <t>2024-10-24 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1898,37 +1898,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-09-11</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>7</v>
       </c>
       <c r="I28" t="n">
-        <v>865060</v>
+        <v>1965029</v>
       </c>
       <c r="J28" t="n">
-        <v>6055420</v>
+        <v>13755203</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2024-11-25 00:00:00</t>
+          <t>2024-09-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -1952,17 +1952,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1976,13 +1976,13 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="I29" t="n">
-        <v>236413</v>
+        <v>320598</v>
       </c>
       <c r="J29" t="n">
-        <v>1654891</v>
+        <v>12182724</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2024-03-09 00:00:00</t>
+          <t>2024-05-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2006,17 +2006,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2030,13 +2030,13 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I30" t="n">
-        <v>1259935</v>
+        <v>278869</v>
       </c>
       <c r="J30" t="n">
-        <v>47877530</v>
+        <v>3904166</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2024-10-20 00:00:00</t>
+          <t>2024-11-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2060,37 +2060,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I31" t="n">
-        <v>838893</v>
+        <v>95394</v>
       </c>
       <c r="J31" t="n">
-        <v>39427971</v>
+        <v>1049334</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2024-11-17 00:00:00</t>
+          <t>2024-12-25 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2114,37 +2114,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-02-11</t>
+          <t>2024-11-21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I32" t="n">
-        <v>623468</v>
+        <v>1273320</v>
       </c>
       <c r="J32" t="n">
-        <v>14963232</v>
+        <v>59846040</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-02-11 00:00:00</t>
+          <t>2024-11-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>1041949</v>
+        <v>882860</v>
       </c>
       <c r="J33" t="n">
-        <v>32300419</v>
+        <v>4414300</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2024-06-24 00:00:00</t>
+          <t>2024-03-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2222,37 +2222,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I34" t="n">
-        <v>1673459</v>
+        <v>1062568</v>
       </c>
       <c r="J34" t="n">
-        <v>45183393</v>
+        <v>9563112</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2024-03-09 00:00:00</t>
+          <t>2024-10-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2276,37 +2276,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I35" t="n">
-        <v>1095512</v>
+        <v>210242</v>
       </c>
       <c r="J35" t="n">
-        <v>28483312</v>
+        <v>4625324</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2024-05-10 00:00:00</t>
+          <t>2024-08-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2330,17 +2330,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-06-28</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2354,13 +2354,13 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>164168</v>
+        <v>358811</v>
       </c>
       <c r="J36" t="n">
-        <v>1970016</v>
+        <v>358811</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2024-01-05 00:00:00</t>
+          <t>2024-06-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2384,17 +2384,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-09-14</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2408,13 +2408,13 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I37" t="n">
-        <v>774232</v>
+        <v>1846036</v>
       </c>
       <c r="J37" t="n">
-        <v>6968088</v>
+        <v>92301800</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2024-11-08 00:00:00</t>
+          <t>2024-09-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2453,22 +2453,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I38" t="n">
-        <v>1435327</v>
+        <v>306116</v>
       </c>
       <c r="J38" t="n">
-        <v>2870654</v>
+        <v>5816204</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2024-05-09 00:00:00</t>
+          <t>2024-06-06 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2492,37 +2492,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-05-05</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>1512230</v>
+        <v>1563583</v>
       </c>
       <c r="J39" t="n">
-        <v>25707910</v>
+        <v>3127166</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2024-10-31 00:00:00</t>
+          <t>2024-05-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2561,22 +2561,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>1274037</v>
+        <v>1712198</v>
       </c>
       <c r="J40" t="n">
-        <v>42043221</v>
+        <v>11985386</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2024-05-22 00:00:00</t>
+          <t>2024-03-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2600,17 +2600,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-10-14</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I41" t="n">
-        <v>209286</v>
+        <v>62503</v>
       </c>
       <c r="J41" t="n">
-        <v>1674288</v>
+        <v>2750132</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-10-14 00:00:00</t>
+          <t>2024-07-12 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2654,37 +2654,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I42" t="n">
-        <v>101448</v>
+        <v>1842097</v>
       </c>
       <c r="J42" t="n">
-        <v>4869504</v>
+        <v>75525977</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2024-05-22 00:00:00</t>
+          <t>2024-05-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-12-08</t>
+          <t>2024-11-10</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2723,22 +2723,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I43" t="n">
-        <v>924956</v>
+        <v>1454947</v>
       </c>
       <c r="J43" t="n">
-        <v>18499120</v>
+        <v>34918728</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2024-12-08 00:00:00</t>
+          <t>2024-11-10 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2762,17 +2762,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2786,13 +2786,13 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I44" t="n">
-        <v>418225</v>
+        <v>1407548</v>
       </c>
       <c r="J44" t="n">
-        <v>10455625</v>
+        <v>16890576</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2024-03-20 00:00:00</t>
+          <t>2024-11-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2816,37 +2816,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-01-21</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="I45" t="n">
-        <v>482801</v>
+        <v>517063</v>
       </c>
       <c r="J45" t="n">
-        <v>22691647</v>
+        <v>7238882</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2024-05-08 00:00:00</t>
+          <t>2024-01-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2870,37 +2870,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-10-16</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I46" t="n">
-        <v>1250210</v>
+        <v>719170</v>
       </c>
       <c r="J46" t="n">
-        <v>43757350</v>
+        <v>16540910</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2024-10-16 00:00:00</t>
+          <t>2024-02-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2924,37 +2924,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-08-28</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>99997</v>
+        <v>1460090</v>
       </c>
       <c r="J47" t="n">
-        <v>3499895</v>
+        <v>8760540</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2024-08-28 00:00:00</t>
+          <t>2024-11-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -2978,17 +2978,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3002,13 +3002,13 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I48" t="n">
-        <v>272397</v>
+        <v>269211</v>
       </c>
       <c r="J48" t="n">
-        <v>2723970</v>
+        <v>8345541</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2024-09-30 00:00:00</t>
+          <t>2024-01-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3032,37 +3032,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-07-14</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I49" t="n">
-        <v>1180103</v>
+        <v>1669666</v>
       </c>
       <c r="J49" t="n">
-        <v>38943399</v>
+        <v>41741650</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2024-04-03 00:00:00</t>
+          <t>2024-07-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3101,22 +3101,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I50" t="n">
-        <v>500508</v>
+        <v>1476185</v>
       </c>
       <c r="J50" t="n">
-        <v>16016256</v>
+        <v>11809480</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2024-01-16 00:00:00</t>
+          <t>2024-11-26 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3145,12 +3145,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3164,13 +3164,13 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I51" t="n">
-        <v>1625572</v>
+        <v>1000439</v>
       </c>
       <c r="J51" t="n">
-        <v>14630148</v>
+        <v>45019755</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3194,37 +3194,37 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I52" t="n">
-        <v>1658048</v>
+        <v>350061</v>
       </c>
       <c r="J52" t="n">
-        <v>61347776</v>
+        <v>6301098</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2024-02-08 00:00:00</t>
+          <t>2024-03-25 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3248,37 +3248,37 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>360333</v>
+        <v>203899</v>
       </c>
       <c r="J53" t="n">
-        <v>2882664</v>
+        <v>1019495</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>2024-08-25 00:00:00</t>
+          <t>2024-06-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3302,17 +3302,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-11-21</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3326,13 +3326,13 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I54" t="n">
-        <v>888128</v>
+        <v>663569</v>
       </c>
       <c r="J54" t="n">
-        <v>10657536</v>
+        <v>16589225</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2024-11-21 00:00:00</t>
+          <t>2024-05-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3380,13 +3380,13 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1746200</v>
+        <v>221039</v>
       </c>
       <c r="J55" t="n">
-        <v>59370800</v>
+        <v>221039</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2024-05-18 00:00:00</t>
+          <t>2024-11-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3410,37 +3410,37 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="I56" t="n">
-        <v>506417</v>
+        <v>586726</v>
       </c>
       <c r="J56" t="n">
-        <v>24814433</v>
+        <v>7627438</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>2024-05-16 00:00:00</t>
+          <t>2024-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3488,13 +3488,13 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="I57" t="n">
-        <v>913162</v>
+        <v>616067</v>
       </c>
       <c r="J57" t="n">
-        <v>5478972</v>
+        <v>27106948</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2024-08-19 00:00:00</t>
+          <t>2024-12-26 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3518,37 +3518,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>721390</v>
+        <v>419154</v>
       </c>
       <c r="J58" t="n">
-        <v>14427800</v>
+        <v>3353232</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>2024-10-10 00:00:00</t>
+          <t>2024-12-24 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3572,37 +3572,37 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-11-28</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I59" t="n">
-        <v>50502</v>
+        <v>458413</v>
       </c>
       <c r="J59" t="n">
-        <v>252510</v>
+        <v>5959369</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>2024-07-01 00:00:00</t>
+          <t>2024-11-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3626,37 +3626,37 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>309991</v>
+        <v>748628</v>
       </c>
       <c r="J60" t="n">
-        <v>2169937</v>
+        <v>2245884</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>2024-12-21 00:00:00</t>
+          <t>2024-10-04 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3680,17 +3680,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I61" t="n">
-        <v>1701576</v>
+        <v>1394780</v>
       </c>
       <c r="J61" t="n">
-        <v>71466192</v>
+        <v>37659060</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2024-01-14 00:00:00</t>
+          <t>2024-11-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3734,17 +3734,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3758,13 +3758,13 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I62" t="n">
-        <v>1385867</v>
+        <v>1339411</v>
       </c>
       <c r="J62" t="n">
-        <v>52662946</v>
+        <v>26788220</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2024-07-05 00:00:00</t>
+          <t>2024-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3803,22 +3803,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I63" t="n">
-        <v>1784868</v>
+        <v>1777821</v>
       </c>
       <c r="J63" t="n">
-        <v>55330908</v>
+        <v>42667704</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2024-10-30 00:00:00</t>
+          <t>2024-03-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2024-12-02</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3866,13 +3866,13 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I64" t="n">
-        <v>1301989</v>
+        <v>1220833</v>
       </c>
       <c r="J64" t="n">
-        <v>16925857</v>
+        <v>12208330</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2024-12-02 00:00:00</t>
+          <t>2024-06-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3920,13 +3920,13 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I65" t="n">
-        <v>1146451</v>
+        <v>832006</v>
       </c>
       <c r="J65" t="n">
-        <v>38979334</v>
+        <v>16640120</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2024-08-02 00:00:00</t>
+          <t>2024-12-24 00:00:00</t>
         </is>
       </c>
     </row>
@@ -3950,37 +3950,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024-03-23</t>
+          <t>2024-09-15</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I66" t="n">
-        <v>1919383</v>
+        <v>1673482</v>
       </c>
       <c r="J66" t="n">
-        <v>13435681</v>
+        <v>73633208</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2024-03-23 00:00:00</t>
+          <t>2024-09-15 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2024-02-25</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4028,13 +4028,13 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>810374</v>
+        <v>1357121</v>
       </c>
       <c r="J67" t="n">
-        <v>29173464</v>
+        <v>2714242</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2024-11-10 00:00:00</t>
+          <t>2024-02-25 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2024-11-16</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4073,22 +4073,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I68" t="n">
-        <v>1512955</v>
+        <v>566815</v>
       </c>
       <c r="J68" t="n">
-        <v>51440470</v>
+        <v>7368595</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2024-11-16 00:00:00</t>
+          <t>2024-02-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4112,37 +4112,37 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I69" t="n">
-        <v>1561128</v>
+        <v>1646374</v>
       </c>
       <c r="J69" t="n">
-        <v>15611280</v>
+        <v>64208586</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2024-05-03 00:00:00</t>
+          <t>2024-01-01 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4166,37 +4166,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I70" t="n">
-        <v>261689</v>
+        <v>1929168</v>
       </c>
       <c r="J70" t="n">
-        <v>6018847</v>
+        <v>63662544</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>2024-02-07 00:00:00</t>
+          <t>2024-05-17 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4220,37 +4220,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I71" t="n">
-        <v>164406</v>
+        <v>493283</v>
       </c>
       <c r="J71" t="n">
-        <v>3945744</v>
+        <v>20717886</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2024-01-24 00:00:00</t>
+          <t>2024-08-23 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4274,37 +4274,37 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-01-14</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I72" t="n">
-        <v>788263</v>
+        <v>1741400</v>
       </c>
       <c r="J72" t="n">
-        <v>35471835</v>
+        <v>31345200</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2024-04-27 00:00:00</t>
+          <t>2024-01-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4328,37 +4328,37 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I73" t="n">
-        <v>825195</v>
+        <v>1134699</v>
       </c>
       <c r="J73" t="n">
-        <v>30532215</v>
+        <v>54465552</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2024-04-04 00:00:00</t>
+          <t>2024-04-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4382,37 +4382,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I74" t="n">
-        <v>1460183</v>
+        <v>1181759</v>
       </c>
       <c r="J74" t="n">
-        <v>20442562</v>
+        <v>12999349</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>2024-12-12 00:00:00</t>
+          <t>2024-03-15 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4436,37 +4436,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I75" t="n">
-        <v>1070074</v>
+        <v>1404161</v>
       </c>
       <c r="J75" t="n">
-        <v>20331406</v>
+        <v>7020805</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2024-05-23 00:00:00</t>
+          <t>2024-10-28 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-11-03</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4505,22 +4505,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I76" t="n">
-        <v>1087467</v>
+        <v>1229797</v>
       </c>
       <c r="J76" t="n">
-        <v>15224538</v>
+        <v>25825737</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2024-04-26 00:00:00</t>
+          <t>2024-11-03 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I77" t="n">
-        <v>123070</v>
+        <v>215910</v>
       </c>
       <c r="J77" t="n">
-        <v>4184380</v>
+        <v>8420490</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>2024-06-12 00:00:00</t>
+          <t>2024-12-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4598,37 +4598,37 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I78" t="n">
-        <v>1881071</v>
+        <v>1959034</v>
       </c>
       <c r="J78" t="n">
-        <v>45145704</v>
+        <v>74443292</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>2024-04-29 00:00:00</t>
+          <t>2024-07-25 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-12-07</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4667,22 +4667,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I79" t="n">
-        <v>403504</v>
+        <v>1298320</v>
       </c>
       <c r="J79" t="n">
-        <v>10087600</v>
+        <v>63617680</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2024-03-03 00:00:00</t>
+          <t>2024-12-07 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2024-08-22</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4730,13 +4730,13 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I80" t="n">
-        <v>1116370</v>
+        <v>684321</v>
       </c>
       <c r="J80" t="n">
-        <v>7814590</v>
+        <v>19845309</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2024-08-22 00:00:00</t>
+          <t>2024-04-03 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4760,17 +4760,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4784,13 +4784,13 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I81" t="n">
-        <v>1672870</v>
+        <v>1419165</v>
       </c>
       <c r="J81" t="n">
-        <v>73606280</v>
+        <v>42574950</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>2024-08-18 00:00:00</t>
+          <t>2024-01-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4814,37 +4814,37 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2024-12-20</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>1120898</v>
+        <v>1194836</v>
       </c>
       <c r="J82" t="n">
-        <v>40352328</v>
+        <v>4779344</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2024-12-20 00:00:00</t>
+          <t>2024-04-03 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4868,37 +4868,37 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2024-09-28</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I83" t="n">
-        <v>1782351</v>
+        <v>1522857</v>
       </c>
       <c r="J83" t="n">
-        <v>32082318</v>
+        <v>73097136</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2024-09-28 00:00:00</t>
+          <t>2024-12-24 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4946,13 +4946,13 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I84" t="n">
-        <v>1077967</v>
+        <v>1926612</v>
       </c>
       <c r="J84" t="n">
-        <v>46352581</v>
+        <v>59724972</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2024-06-16 00:00:00</t>
+          <t>2024-03-14 00:00:00</t>
         </is>
       </c>
     </row>
@@ -4976,17 +4976,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5000,13 +5000,13 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I85" t="n">
-        <v>988631</v>
+        <v>396790</v>
       </c>
       <c r="J85" t="n">
-        <v>2965893</v>
+        <v>8729380</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2024-05-23 00:00:00</t>
+          <t>2024-03-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5030,37 +5030,37 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>932295</v>
+        <v>270124</v>
       </c>
       <c r="J86" t="n">
-        <v>13984425</v>
+        <v>1080496</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2024-02-20 00:00:00</t>
+          <t>2024-06-26 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5084,37 +5084,37 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I87" t="n">
-        <v>1474370</v>
+        <v>671631</v>
       </c>
       <c r="J87" t="n">
-        <v>56026060</v>
+        <v>7387941</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2024-01-08 00:00:00</t>
+          <t>2024-07-08 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5138,17 +5138,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5162,13 +5162,13 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I88" t="n">
-        <v>1118453</v>
+        <v>1669919</v>
       </c>
       <c r="J88" t="n">
-        <v>33553590</v>
+        <v>40078056</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2024-11-18 00:00:00</t>
+          <t>2024-05-31 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5192,37 +5192,37 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-10-02</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>858642</v>
+        <v>1211321</v>
       </c>
       <c r="J89" t="n">
-        <v>18890124</v>
+        <v>1211321</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2024-05-22 00:00:00</t>
+          <t>2024-10-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2024-11-13</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5261,22 +5261,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I90" t="n">
-        <v>1834862</v>
+        <v>1222510</v>
       </c>
       <c r="J90" t="n">
-        <v>78899066</v>
+        <v>19560160</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2024-11-13 00:00:00</t>
+          <t>2024-12-04 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5300,37 +5300,37 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I91" t="n">
-        <v>237124</v>
+        <v>1198663</v>
       </c>
       <c r="J91" t="n">
-        <v>9722084</v>
+        <v>16781282</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2024-01-17 00:00:00</t>
+          <t>2024-07-15 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5378,13 +5378,13 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I92" t="n">
-        <v>1125803</v>
+        <v>958441</v>
       </c>
       <c r="J92" t="n">
-        <v>48409529</v>
+        <v>25877907</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2024-06-30 00:00:00</t>
+          <t>2024-07-31 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -5432,13 +5432,13 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I93" t="n">
-        <v>1723708</v>
+        <v>903075</v>
       </c>
       <c r="J93" t="n">
-        <v>15513372</v>
+        <v>7224600</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>2024-04-08 00:00:00</t>
+          <t>2024-07-02 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5462,37 +5462,37 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I94" t="n">
-        <v>115206</v>
+        <v>1288859</v>
       </c>
       <c r="J94" t="n">
-        <v>4723446</v>
+        <v>51554360</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2024-12-04 00:00:00</t>
+          <t>2024-05-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5516,17 +5516,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5540,13 +5540,13 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I95" t="n">
-        <v>1739906</v>
+        <v>121904</v>
       </c>
       <c r="J95" t="n">
-        <v>41757744</v>
+        <v>4388544</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>2024-07-05 00:00:00</t>
+          <t>2024-12-27 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2024-05-21</t>
+          <t>2024-09-16</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5585,22 +5585,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I96" t="n">
-        <v>1028115</v>
+        <v>1612895</v>
       </c>
       <c r="J96" t="n">
-        <v>21590415</v>
+        <v>66128695</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2024-05-21 00:00:00</t>
+          <t>2024-09-16 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5624,37 +5624,37 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-09-18</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I97" t="n">
-        <v>1922803</v>
+        <v>1714952</v>
       </c>
       <c r="J97" t="n">
-        <v>88448938</v>
+        <v>41158848</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>2024-11-12 00:00:00</t>
+          <t>2024-09-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5678,37 +5678,37 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I98" t="n">
-        <v>1211741</v>
+        <v>1554083</v>
       </c>
       <c r="J98" t="n">
-        <v>10905669</v>
+        <v>62163320</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2024-04-26 00:00:00</t>
+          <t>2024-07-30 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5756,13 +5756,13 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I99" t="n">
-        <v>609683</v>
+        <v>1697258</v>
       </c>
       <c r="J99" t="n">
-        <v>20729222</v>
+        <v>74679352</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2024-01-30 00:00:00</t>
+          <t>2024-09-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5786,37 +5786,37 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I100" t="n">
-        <v>531365</v>
+        <v>332866</v>
       </c>
       <c r="J100" t="n">
-        <v>9033205</v>
+        <v>10984578</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2024-10-11 00:00:00</t>
+          <t>2024-06-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5840,17 +5840,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5864,13 +5864,13 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I101" t="n">
-        <v>891601</v>
+        <v>1200383</v>
       </c>
       <c r="J101" t="n">
-        <v>34772439</v>
+        <v>25208043</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2024-06-19 00:00:00</t>
+          <t>2024-12-29 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5918,13 +5918,13 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I102" t="n">
-        <v>871855</v>
+        <v>717493</v>
       </c>
       <c r="J102" t="n">
-        <v>19180810</v>
+        <v>22959776</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2024-01-12 00:00:00</t>
+          <t>2024-03-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -5948,37 +5948,37 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I103" t="n">
-        <v>1097357</v>
+        <v>1027896</v>
       </c>
       <c r="J103" t="n">
-        <v>23044497</v>
+        <v>14390544</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2024-09-09 00:00:00</t>
+          <t>2024-12-11 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6002,17 +6002,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6026,13 +6026,13 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I104" t="n">
-        <v>924913</v>
+        <v>1506892</v>
       </c>
       <c r="J104" t="n">
-        <v>6474391</v>
+        <v>16575812</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2024-07-13 00:00:00</t>
+          <t>2024-06-22 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6056,37 +6056,37 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-12-19</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I105" t="n">
-        <v>904545</v>
+        <v>1729205</v>
       </c>
       <c r="J105" t="n">
-        <v>37990890</v>
+        <v>65709790</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2024-05-07 00:00:00</t>
+          <t>2024-12-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6110,37 +6110,37 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I106" t="n">
-        <v>888507</v>
+        <v>500749</v>
       </c>
       <c r="J106" t="n">
-        <v>19547154</v>
+        <v>9013482</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2024-08-11 00:00:00</t>
+          <t>2024-08-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6164,37 +6164,37 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I107" t="n">
-        <v>1151803</v>
+        <v>402859</v>
       </c>
       <c r="J107" t="n">
-        <v>43768514</v>
+        <v>5237167</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2024-01-06 00:00:00</t>
+          <t>2024-02-21 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6218,37 +6218,37 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری ج</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I108" t="n">
-        <v>93512</v>
+        <v>1872610</v>
       </c>
       <c r="J108" t="n">
-        <v>3646968</v>
+        <v>35579590</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2024-08-25 00:00:00</t>
+          <t>2024-07-13 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -6296,13 +6296,13 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I109" t="n">
-        <v>656402</v>
+        <v>848727</v>
       </c>
       <c r="J109" t="n">
-        <v>15753648</v>
+        <v>24613083</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2024-11-17 00:00:00</t>
+          <t>2024-09-10 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6326,37 +6326,37 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="I110" t="n">
-        <v>1630591</v>
+        <v>195973</v>
       </c>
       <c r="J110" t="n">
-        <v>6522364</v>
+        <v>7642947</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2024-08-01 00:00:00</t>
+          <t>2024-07-20 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6380,37 +6380,37 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-09-08</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری الف</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I111" t="n">
-        <v>77819</v>
+        <v>605278</v>
       </c>
       <c r="J111" t="n">
-        <v>856009</v>
+        <v>7868614</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2024-01-10 00:00:00</t>
+          <t>2024-09-08 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6434,37 +6434,37 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-10-05</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I112" t="n">
-        <v>385354</v>
+        <v>532196</v>
       </c>
       <c r="J112" t="n">
-        <v>3853540</v>
+        <v>4257568</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2024-09-03 00:00:00</t>
+          <t>2024-10-05 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -6503,22 +6503,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM002</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول B</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I113" t="n">
-        <v>1236150</v>
+        <v>140480</v>
       </c>
       <c r="J113" t="n">
-        <v>40792950</v>
+        <v>3792960</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2024-07-17 00:00:00</t>
+          <t>2024-08-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6542,37 +6542,37 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-19</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>مشتری الف</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I114" t="n">
-        <v>1394000</v>
+        <v>1589865</v>
       </c>
       <c r="J114" t="n">
-        <v>23698000</v>
+        <v>42926355</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2024-11-02 00:00:00</t>
+          <t>2024-11-19 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2024-09-21</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -6611,22 +6611,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I115" t="n">
-        <v>1263734</v>
+        <v>1543433</v>
       </c>
       <c r="J115" t="n">
-        <v>53076828</v>
+        <v>63280753</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2024-09-21 00:00:00</t>
+          <t>2024-11-08 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6650,17 +6650,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-12-18</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I116" t="n">
-        <v>1507621</v>
+        <v>1594432</v>
       </c>
       <c r="J116" t="n">
-        <v>48243872</v>
+        <v>31888640</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2024-01-06 00:00:00</t>
+          <t>2024-12-18 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6719,22 +6719,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ITEM001</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>محصول A</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I117" t="n">
-        <v>561462</v>
+        <v>290924</v>
       </c>
       <c r="J117" t="n">
-        <v>16282398</v>
+        <v>12218808</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2024-11-24 00:00:00</t>
+          <t>2024-06-01 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6758,37 +6758,37 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>مشتری د</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM003</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول C</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>1818212</v>
+        <v>998388</v>
       </c>
       <c r="J118" t="n">
-        <v>1818212</v>
+        <v>1996776</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2024-11-12 00:00:00</t>
+          <t>2024-10-09 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6812,37 +6812,37 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2024-03-24</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>مشتری ب</t>
+          <t>مشتری د</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I119" t="n">
-        <v>1649748</v>
+        <v>269947</v>
       </c>
       <c r="J119" t="n">
-        <v>36294456</v>
+        <v>10797880</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2024-03-24 00:00:00</t>
+          <t>2024-05-01 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6866,37 +6866,37 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>مشتری ج</t>
+          <t>مشتری ب</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ITEM002</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>محصول B</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I120" t="n">
-        <v>1898954</v>
+        <v>168908</v>
       </c>
       <c r="J120" t="n">
-        <v>7595816</v>
+        <v>6756320</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2024-12-18 00:00:00</t>
+          <t>2024-08-10 00:00:00</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -6935,22 +6935,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ITEM003</t>
+          <t>ITEM001</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>محصول C</t>
+          <t>محصول A</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I121" t="n">
-        <v>1105141</v>
+        <v>376434</v>
       </c>
       <c r="J121" t="n">
-        <v>29838807</v>
+        <v>12422322</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00:00</t>
+          <t>2024-07-01 00:00:00</t>
         </is>
       </c>
     </row>
